--- a/RQ1/384_synonyms_antonym_arbitrate.xlsx
+++ b/RQ1/384_synonyms_antonym_arbitrate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\api_diff\数据\统计\RQ1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ICSE2020APIComp.github.io\RQ1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC998A7-BF97-49B4-BF6B-D634FE663FE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242F25ED-0CCC-4200-B0D8-5647A6AD6E7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2" xr2:uid="{022DA3F5-DBBB-4B1C-979D-653E98D44CB5}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{022DA3F5-DBBB-4B1C-979D-653E98D44CB5}"/>
   </bookViews>
   <sheets>
     <sheet name="user_1" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3470" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3468" uniqueCount="549">
   <si>
     <t>start</t>
   </si>
@@ -1781,7 +1781,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1812,26 +1812,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1858,15 +1845,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1874,13 +1858,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2194,8 +2174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C5DAEC-A0B2-43ED-B634-E665A567C710}">
   <dimension ref="A1:E385"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E385"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8753,7 +8733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF259B72-47A1-4943-9E72-CF8806F99350}">
   <dimension ref="A1:F385"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -15701,15 +15681,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C2FEC1F-8633-4C5E-8699-6F83224DCC4A}">
-  <dimension ref="A1:H385"/>
+  <dimension ref="A1:E385"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -15721,16 +15704,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="G1" s="2" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -15746,18 +15723,8 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <f>SUM(G2:G385)</f>
-        <v>284</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -15773,17 +15740,8 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>0.73958333333333304</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -15799,14 +15757,8 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -15822,14 +15774,8 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -15845,14 +15791,8 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -15868,14 +15808,8 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -15891,14 +15825,8 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -15914,14 +15842,8 @@
       <c r="E9">
         <v>0</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -15937,14 +15859,8 @@
       <c r="E10">
         <v>0</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -15960,14 +15876,8 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -15983,14 +15893,8 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -16006,14 +15910,8 @@
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -16029,14 +15927,8 @@
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -16052,14 +15944,8 @@
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -16072,17 +15958,11 @@
       <c r="D16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="3">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -16098,14 +15978,8 @@
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -16121,14 +15995,8 @@
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -16144,14 +16012,8 @@
       <c r="E19">
         <v>1</v>
       </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -16167,14 +16029,8 @@
       <c r="E20">
         <v>1</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -16190,14 +16046,8 @@
       <c r="E21">
         <v>1</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -16213,14 +16063,8 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -16236,14 +16080,8 @@
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -16259,14 +16097,8 @@
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -16282,14 +16114,8 @@
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -16305,14 +16131,8 @@
       <c r="E26">
         <v>1</v>
       </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -16328,14 +16148,8 @@
       <c r="E27">
         <v>1</v>
       </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -16348,17 +16162,11 @@
       <c r="D28" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="E28" s="3">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -16374,14 +16182,8 @@
       <c r="E29">
         <v>1</v>
       </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -16397,14 +16199,8 @@
       <c r="E30">
         <v>1</v>
       </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -16417,17 +16213,11 @@
       <c r="D31" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="E31" s="3">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -16443,14 +16233,8 @@
       <c r="E32">
         <v>1</v>
       </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -16466,14 +16250,8 @@
       <c r="E33">
         <v>1</v>
       </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -16489,14 +16267,8 @@
       <c r="E34">
         <v>0</v>
       </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -16512,14 +16284,8 @@
       <c r="E35">
         <v>1</v>
       </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -16535,14 +16301,8 @@
       <c r="E36">
         <v>1</v>
       </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -16558,14 +16318,8 @@
       <c r="E37">
         <v>1</v>
       </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -16581,14 +16335,8 @@
       <c r="E38">
         <v>1</v>
       </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -16604,14 +16352,8 @@
       <c r="E39">
         <v>1</v>
       </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -16624,17 +16366,11 @@
       <c r="D40" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E40" s="3">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -16650,14 +16386,8 @@
       <c r="E41">
         <v>1</v>
       </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -16673,14 +16403,8 @@
       <c r="E42">
         <v>1</v>
       </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -16696,14 +16420,8 @@
       <c r="E43">
         <v>1</v>
       </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -16719,14 +16437,8 @@
       <c r="E44">
         <v>1</v>
       </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -16742,14 +16454,8 @@
       <c r="E45">
         <v>1</v>
       </c>
-      <c r="F45">
-        <v>1</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -16765,14 +16471,8 @@
       <c r="E46">
         <v>1</v>
       </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -16788,14 +16488,8 @@
       <c r="E47">
         <v>1</v>
       </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -16811,14 +16505,8 @@
       <c r="E48">
         <v>1</v>
       </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -16834,14 +16522,8 @@
       <c r="E49">
         <v>1</v>
       </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -16857,14 +16539,8 @@
       <c r="E50">
         <v>1</v>
       </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -16880,14 +16556,8 @@
       <c r="E51">
         <v>1</v>
       </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -16903,14 +16573,8 @@
       <c r="E52">
         <v>0</v>
       </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -16926,14 +16590,8 @@
       <c r="E53">
         <v>0</v>
       </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -16949,14 +16607,8 @@
       <c r="E54">
         <v>1</v>
       </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -16972,14 +16624,8 @@
       <c r="E55">
         <v>0</v>
       </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -16995,14 +16641,8 @@
       <c r="E56">
         <v>1</v>
       </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -17018,14 +16658,8 @@
       <c r="E57">
         <v>1</v>
       </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -17041,14 +16675,8 @@
       <c r="E58">
         <v>0</v>
       </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -17064,14 +16692,8 @@
       <c r="E59">
         <v>1</v>
       </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -17087,14 +16709,8 @@
       <c r="E60">
         <v>1</v>
       </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -17110,14 +16726,8 @@
       <c r="E61">
         <v>1</v>
       </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -17133,14 +16743,8 @@
       <c r="E62">
         <v>1</v>
       </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -17156,14 +16760,8 @@
       <c r="E63">
         <v>1</v>
       </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -17179,14 +16777,8 @@
       <c r="E64">
         <v>1</v>
       </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-      <c r="G64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -17202,14 +16794,8 @@
       <c r="E65">
         <v>1</v>
       </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -17225,14 +16811,8 @@
       <c r="E66">
         <v>1</v>
       </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -17248,14 +16828,8 @@
       <c r="E67">
         <v>1</v>
       </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-      <c r="G67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -17271,14 +16845,8 @@
       <c r="E68">
         <v>0</v>
       </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -17294,14 +16862,8 @@
       <c r="E69">
         <v>1</v>
       </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -17317,14 +16879,8 @@
       <c r="E70">
         <v>1</v>
       </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -17340,14 +16896,8 @@
       <c r="E71">
         <v>0</v>
       </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -17363,14 +16913,8 @@
       <c r="E72">
         <v>1</v>
       </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -17386,14 +16930,8 @@
       <c r="E73">
         <v>1</v>
       </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-      <c r="G73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -17409,14 +16947,8 @@
       <c r="E74">
         <v>1</v>
       </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -17432,14 +16964,8 @@
       <c r="E75">
         <v>1</v>
       </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -17455,14 +16981,8 @@
       <c r="E76">
         <v>1</v>
       </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -17478,14 +16998,8 @@
       <c r="E77">
         <v>1</v>
       </c>
-      <c r="F77">
-        <v>1</v>
-      </c>
-      <c r="G77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -17501,14 +17015,8 @@
       <c r="E78">
         <v>1</v>
       </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-      <c r="G78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -17524,14 +17032,8 @@
       <c r="E79">
         <v>0</v>
       </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -17547,14 +17049,8 @@
       <c r="E80">
         <v>1</v>
       </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
-      <c r="G80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -17570,14 +17066,8 @@
       <c r="E81">
         <v>0</v>
       </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -17593,14 +17083,8 @@
       <c r="E82">
         <v>1</v>
       </c>
-      <c r="F82">
-        <v>1</v>
-      </c>
-      <c r="G82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -17616,14 +17100,8 @@
       <c r="E83">
         <v>1</v>
       </c>
-      <c r="F83">
-        <v>1</v>
-      </c>
-      <c r="G83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -17639,14 +17117,8 @@
       <c r="E84">
         <v>1</v>
       </c>
-      <c r="F84">
-        <v>1</v>
-      </c>
-      <c r="G84">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -17662,14 +17134,8 @@
       <c r="E85">
         <v>1</v>
       </c>
-      <c r="F85">
-        <v>1</v>
-      </c>
-      <c r="G85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -17685,14 +17151,8 @@
       <c r="E86">
         <v>1</v>
       </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-      <c r="G86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -17708,14 +17168,8 @@
       <c r="E87">
         <v>1</v>
       </c>
-      <c r="F87">
-        <v>1</v>
-      </c>
-      <c r="G87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -17731,14 +17185,8 @@
       <c r="E88">
         <v>1</v>
       </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="G88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -17754,14 +17202,8 @@
       <c r="E89">
         <v>0</v>
       </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -17777,14 +17219,8 @@
       <c r="E90">
         <v>1</v>
       </c>
-      <c r="F90">
-        <v>1</v>
-      </c>
-      <c r="G90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -17800,14 +17236,8 @@
       <c r="E91">
         <v>1</v>
       </c>
-      <c r="F91">
-        <v>1</v>
-      </c>
-      <c r="G91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -17823,14 +17253,8 @@
       <c r="E92">
         <v>1</v>
       </c>
-      <c r="F92">
-        <v>1</v>
-      </c>
-      <c r="G92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -17846,14 +17270,8 @@
       <c r="E93">
         <v>0</v>
       </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -17869,14 +17287,8 @@
       <c r="E94">
         <v>1</v>
       </c>
-      <c r="F94">
-        <v>1</v>
-      </c>
-      <c r="G94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -17892,14 +17304,8 @@
       <c r="E95">
         <v>1</v>
       </c>
-      <c r="F95">
-        <v>1</v>
-      </c>
-      <c r="G95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -17915,14 +17321,8 @@
       <c r="E96">
         <v>1</v>
       </c>
-      <c r="F96">
-        <v>1</v>
-      </c>
-      <c r="G96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -17938,14 +17338,8 @@
       <c r="E97">
         <v>1</v>
       </c>
-      <c r="F97">
-        <v>1</v>
-      </c>
-      <c r="G97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -17961,14 +17355,8 @@
       <c r="E98">
         <v>1</v>
       </c>
-      <c r="F98">
-        <v>1</v>
-      </c>
-      <c r="G98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -17984,14 +17372,8 @@
       <c r="E99">
         <v>1</v>
       </c>
-      <c r="F99">
-        <v>1</v>
-      </c>
-      <c r="G99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -18007,14 +17389,8 @@
       <c r="E100">
         <v>1</v>
       </c>
-      <c r="F100">
-        <v>1</v>
-      </c>
-      <c r="G100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -18027,17 +17403,11 @@
       <c r="D101" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101">
-        <v>1</v>
-      </c>
-      <c r="G101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -18053,14 +17423,8 @@
       <c r="E102">
         <v>1</v>
       </c>
-      <c r="F102">
-        <v>1</v>
-      </c>
-      <c r="G102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -18076,14 +17440,8 @@
       <c r="E103">
         <v>1</v>
       </c>
-      <c r="F103">
-        <v>1</v>
-      </c>
-      <c r="G103">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -18099,14 +17457,8 @@
       <c r="E104">
         <v>1</v>
       </c>
-      <c r="F104">
-        <v>1</v>
-      </c>
-      <c r="G104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -18122,14 +17474,8 @@
       <c r="E105">
         <v>0</v>
       </c>
-      <c r="F105">
-        <v>0</v>
-      </c>
-      <c r="G105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -18145,14 +17491,8 @@
       <c r="E106">
         <v>1</v>
       </c>
-      <c r="F106">
-        <v>1</v>
-      </c>
-      <c r="G106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -18168,14 +17508,8 @@
       <c r="E107">
         <v>0</v>
       </c>
-      <c r="F107">
-        <v>0</v>
-      </c>
-      <c r="G107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -18191,14 +17525,8 @@
       <c r="E108">
         <v>1</v>
       </c>
-      <c r="F108">
-        <v>1</v>
-      </c>
-      <c r="G108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -18214,14 +17542,8 @@
       <c r="E109">
         <v>1</v>
       </c>
-      <c r="F109">
-        <v>1</v>
-      </c>
-      <c r="G109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -18237,14 +17559,8 @@
       <c r="E110">
         <v>1</v>
       </c>
-      <c r="F110">
-        <v>1</v>
-      </c>
-      <c r="G110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -18260,14 +17576,8 @@
       <c r="E111">
         <v>0</v>
       </c>
-      <c r="F111">
-        <v>0</v>
-      </c>
-      <c r="G111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -18283,14 +17593,8 @@
       <c r="E112">
         <v>1</v>
       </c>
-      <c r="F112">
-        <v>1</v>
-      </c>
-      <c r="G112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -18306,14 +17610,8 @@
       <c r="E113">
         <v>1</v>
       </c>
-      <c r="F113">
-        <v>1</v>
-      </c>
-      <c r="G113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -18329,14 +17627,8 @@
       <c r="E114">
         <v>1</v>
       </c>
-      <c r="F114">
-        <v>1</v>
-      </c>
-      <c r="G114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -18352,14 +17644,8 @@
       <c r="E115">
         <v>1</v>
       </c>
-      <c r="F115">
-        <v>1</v>
-      </c>
-      <c r="G115">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -18375,14 +17661,8 @@
       <c r="E116">
         <v>1</v>
       </c>
-      <c r="F116">
-        <v>1</v>
-      </c>
-      <c r="G116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -18398,14 +17678,8 @@
       <c r="E117">
         <v>1</v>
       </c>
-      <c r="F117">
-        <v>1</v>
-      </c>
-      <c r="G117">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -18421,14 +17695,8 @@
       <c r="E118">
         <v>1</v>
       </c>
-      <c r="F118">
-        <v>1</v>
-      </c>
-      <c r="G118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -18441,17 +17709,11 @@
       <c r="D119" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="E119" s="3">
-        <v>0</v>
-      </c>
-      <c r="F119">
-        <v>1</v>
-      </c>
-      <c r="G119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -18467,14 +17729,8 @@
       <c r="E120">
         <v>1</v>
       </c>
-      <c r="F120">
-        <v>1</v>
-      </c>
-      <c r="G120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -18490,14 +17746,8 @@
       <c r="E121">
         <v>1</v>
       </c>
-      <c r="F121">
-        <v>1</v>
-      </c>
-      <c r="G121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -18510,17 +17760,11 @@
       <c r="D122" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="E122" s="3">
-        <v>1</v>
-      </c>
-      <c r="F122">
-        <v>0</v>
-      </c>
-      <c r="G122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -18536,14 +17780,8 @@
       <c r="E123">
         <v>0</v>
       </c>
-      <c r="F123">
-        <v>0</v>
-      </c>
-      <c r="G123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -18559,14 +17797,8 @@
       <c r="E124">
         <v>1</v>
       </c>
-      <c r="F124">
-        <v>1</v>
-      </c>
-      <c r="G124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -18582,14 +17814,8 @@
       <c r="E125">
         <v>0</v>
       </c>
-      <c r="F125">
-        <v>0</v>
-      </c>
-      <c r="G125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -18605,14 +17831,8 @@
       <c r="E126">
         <v>1</v>
       </c>
-      <c r="F126">
-        <v>1</v>
-      </c>
-      <c r="G126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -18628,14 +17848,8 @@
       <c r="E127">
         <v>1</v>
       </c>
-      <c r="F127">
-        <v>1</v>
-      </c>
-      <c r="G127">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -18651,14 +17865,8 @@
       <c r="E128">
         <v>0</v>
       </c>
-      <c r="F128">
-        <v>0</v>
-      </c>
-      <c r="G128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -18674,14 +17882,8 @@
       <c r="E129">
         <v>1</v>
       </c>
-      <c r="F129">
-        <v>1</v>
-      </c>
-      <c r="G129">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -18697,14 +17899,8 @@
       <c r="E130">
         <v>0</v>
       </c>
-      <c r="F130">
-        <v>0</v>
-      </c>
-      <c r="G130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -18720,14 +17916,8 @@
       <c r="E131">
         <v>1</v>
       </c>
-      <c r="F131">
-        <v>1</v>
-      </c>
-      <c r="G131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -18740,17 +17930,11 @@
       <c r="D132" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E132" s="3">
-        <v>0</v>
-      </c>
-      <c r="F132">
-        <v>1</v>
-      </c>
-      <c r="G132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -18766,14 +17950,8 @@
       <c r="E133">
         <v>0</v>
       </c>
-      <c r="F133">
-        <v>0</v>
-      </c>
-      <c r="G133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -18789,14 +17967,8 @@
       <c r="E134">
         <v>0</v>
       </c>
-      <c r="F134">
-        <v>0</v>
-      </c>
-      <c r="G134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -18812,14 +17984,8 @@
       <c r="E135">
         <v>1</v>
       </c>
-      <c r="F135">
-        <v>1</v>
-      </c>
-      <c r="G135">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -18835,14 +18001,8 @@
       <c r="E136">
         <v>0</v>
       </c>
-      <c r="F136">
-        <v>0</v>
-      </c>
-      <c r="G136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -18858,14 +18018,8 @@
       <c r="E137">
         <v>0</v>
       </c>
-      <c r="F137">
-        <v>0</v>
-      </c>
-      <c r="G137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -18881,14 +18035,8 @@
       <c r="E138">
         <v>1</v>
       </c>
-      <c r="F138">
-        <v>1</v>
-      </c>
-      <c r="G138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -18904,14 +18052,8 @@
       <c r="E139">
         <v>1</v>
       </c>
-      <c r="F139">
-        <v>1</v>
-      </c>
-      <c r="G139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -18927,14 +18069,8 @@
       <c r="E140">
         <v>1</v>
       </c>
-      <c r="F140">
-        <v>1</v>
-      </c>
-      <c r="G140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -18950,14 +18086,8 @@
       <c r="E141">
         <v>1</v>
       </c>
-      <c r="F141">
-        <v>1</v>
-      </c>
-      <c r="G141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -18973,14 +18103,8 @@
       <c r="E142">
         <v>1</v>
       </c>
-      <c r="F142">
-        <v>1</v>
-      </c>
-      <c r="G142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -18996,14 +18120,8 @@
       <c r="E143">
         <v>1</v>
       </c>
-      <c r="F143">
-        <v>1</v>
-      </c>
-      <c r="G143">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -19019,14 +18137,8 @@
       <c r="E144">
         <v>1</v>
       </c>
-      <c r="F144">
-        <v>1</v>
-      </c>
-      <c r="G144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -19042,14 +18154,8 @@
       <c r="E145">
         <v>1</v>
       </c>
-      <c r="F145">
-        <v>1</v>
-      </c>
-      <c r="G145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -19065,14 +18171,8 @@
       <c r="E146">
         <v>0</v>
       </c>
-      <c r="F146">
-        <v>0</v>
-      </c>
-      <c r="G146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -19088,14 +18188,8 @@
       <c r="E147">
         <v>1</v>
       </c>
-      <c r="F147">
-        <v>1</v>
-      </c>
-      <c r="G147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -19111,14 +18205,8 @@
       <c r="E148">
         <v>0</v>
       </c>
-      <c r="F148">
-        <v>0</v>
-      </c>
-      <c r="G148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -19134,14 +18222,8 @@
       <c r="E149">
         <v>1</v>
       </c>
-      <c r="F149">
-        <v>1</v>
-      </c>
-      <c r="G149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -19157,14 +18239,8 @@
       <c r="E150">
         <v>1</v>
       </c>
-      <c r="F150">
-        <v>1</v>
-      </c>
-      <c r="G150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -19177,17 +18253,11 @@
       <c r="D151" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="E151" s="3">
-        <v>0</v>
-      </c>
-      <c r="F151">
-        <v>1</v>
-      </c>
-      <c r="G151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -19203,14 +18273,8 @@
       <c r="E152">
         <v>0</v>
       </c>
-      <c r="F152">
-        <v>0</v>
-      </c>
-      <c r="G152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -19226,14 +18290,8 @@
       <c r="E153">
         <v>0</v>
       </c>
-      <c r="F153">
-        <v>0</v>
-      </c>
-      <c r="G153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -19249,14 +18307,8 @@
       <c r="E154">
         <v>0</v>
       </c>
-      <c r="F154">
-        <v>0</v>
-      </c>
-      <c r="G154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -19272,14 +18324,8 @@
       <c r="E155">
         <v>1</v>
       </c>
-      <c r="F155">
-        <v>1</v>
-      </c>
-      <c r="G155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -19295,14 +18341,8 @@
       <c r="E156">
         <v>1</v>
       </c>
-      <c r="F156">
-        <v>1</v>
-      </c>
-      <c r="G156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -19318,14 +18358,8 @@
       <c r="E157">
         <v>1</v>
       </c>
-      <c r="F157">
-        <v>1</v>
-      </c>
-      <c r="G157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -19341,14 +18375,8 @@
       <c r="E158">
         <v>0</v>
       </c>
-      <c r="F158">
-        <v>0</v>
-      </c>
-      <c r="G158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -19364,14 +18392,8 @@
       <c r="E159">
         <v>1</v>
       </c>
-      <c r="F159">
-        <v>1</v>
-      </c>
-      <c r="G159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -19387,14 +18409,8 @@
       <c r="E160">
         <v>1</v>
       </c>
-      <c r="F160">
-        <v>1</v>
-      </c>
-      <c r="G160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -19410,14 +18426,8 @@
       <c r="E161">
         <v>1</v>
       </c>
-      <c r="F161">
-        <v>1</v>
-      </c>
-      <c r="G161">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -19433,14 +18443,8 @@
       <c r="E162">
         <v>1</v>
       </c>
-      <c r="F162">
-        <v>1</v>
-      </c>
-      <c r="G162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -19456,14 +18460,8 @@
       <c r="E163">
         <v>1</v>
       </c>
-      <c r="F163">
-        <v>1</v>
-      </c>
-      <c r="G163">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -19479,14 +18477,8 @@
       <c r="E164">
         <v>1</v>
       </c>
-      <c r="F164">
-        <v>1</v>
-      </c>
-      <c r="G164">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -19502,14 +18494,8 @@
       <c r="E165">
         <v>1</v>
       </c>
-      <c r="F165">
-        <v>1</v>
-      </c>
-      <c r="G165">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -19525,14 +18511,8 @@
       <c r="E166">
         <v>1</v>
       </c>
-      <c r="F166">
-        <v>1</v>
-      </c>
-      <c r="G166">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -19548,14 +18528,8 @@
       <c r="E167">
         <v>0</v>
       </c>
-      <c r="F167">
-        <v>0</v>
-      </c>
-      <c r="G167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -19571,14 +18545,8 @@
       <c r="E168">
         <v>0</v>
       </c>
-      <c r="F168">
-        <v>0</v>
-      </c>
-      <c r="G168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -19594,14 +18562,8 @@
       <c r="E169">
         <v>1</v>
       </c>
-      <c r="F169">
-        <v>1</v>
-      </c>
-      <c r="G169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -19617,14 +18579,8 @@
       <c r="E170">
         <v>1</v>
       </c>
-      <c r="F170">
-        <v>1</v>
-      </c>
-      <c r="G170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -19640,14 +18596,8 @@
       <c r="E171">
         <v>1</v>
       </c>
-      <c r="F171">
-        <v>1</v>
-      </c>
-      <c r="G171">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -19663,14 +18613,8 @@
       <c r="E172">
         <v>1</v>
       </c>
-      <c r="F172">
-        <v>1</v>
-      </c>
-      <c r="G172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -19686,14 +18630,8 @@
       <c r="E173">
         <v>1</v>
       </c>
-      <c r="F173">
-        <v>1</v>
-      </c>
-      <c r="G173">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -19709,14 +18647,8 @@
       <c r="E174">
         <v>1</v>
       </c>
-      <c r="F174">
-        <v>1</v>
-      </c>
-      <c r="G174">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -19732,14 +18664,8 @@
       <c r="E175">
         <v>1</v>
       </c>
-      <c r="F175">
-        <v>1</v>
-      </c>
-      <c r="G175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -19755,14 +18681,8 @@
       <c r="E176">
         <v>1</v>
       </c>
-      <c r="F176">
-        <v>1</v>
-      </c>
-      <c r="G176">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -19778,14 +18698,8 @@
       <c r="E177">
         <v>1</v>
       </c>
-      <c r="F177">
-        <v>1</v>
-      </c>
-      <c r="G177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -19801,14 +18715,8 @@
       <c r="E178">
         <v>1</v>
       </c>
-      <c r="F178">
-        <v>1</v>
-      </c>
-      <c r="G178">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -19824,14 +18732,8 @@
       <c r="E179">
         <v>0</v>
       </c>
-      <c r="F179">
-        <v>0</v>
-      </c>
-      <c r="G179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -19847,14 +18749,8 @@
       <c r="E180">
         <v>1</v>
       </c>
-      <c r="F180">
-        <v>1</v>
-      </c>
-      <c r="G180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -19870,14 +18766,8 @@
       <c r="E181">
         <v>1</v>
       </c>
-      <c r="F181">
-        <v>1</v>
-      </c>
-      <c r="G181">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -19893,14 +18783,8 @@
       <c r="E182">
         <v>1</v>
       </c>
-      <c r="F182">
-        <v>1</v>
-      </c>
-      <c r="G182">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -19916,14 +18800,8 @@
       <c r="E183">
         <v>0</v>
       </c>
-      <c r="F183">
-        <v>0</v>
-      </c>
-      <c r="G183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -19939,14 +18817,8 @@
       <c r="E184">
         <v>1</v>
       </c>
-      <c r="F184">
-        <v>1</v>
-      </c>
-      <c r="G184">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -19962,14 +18834,8 @@
       <c r="E185">
         <v>1</v>
       </c>
-      <c r="F185">
-        <v>1</v>
-      </c>
-      <c r="G185">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -19985,14 +18851,8 @@
       <c r="E186">
         <v>0</v>
       </c>
-      <c r="F186">
-        <v>0</v>
-      </c>
-      <c r="G186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -20008,14 +18868,8 @@
       <c r="E187">
         <v>1</v>
       </c>
-      <c r="F187">
-        <v>1</v>
-      </c>
-      <c r="G187">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -20031,14 +18885,8 @@
       <c r="E188">
         <v>1</v>
       </c>
-      <c r="F188">
-        <v>1</v>
-      </c>
-      <c r="G188">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>188</v>
       </c>
@@ -20054,14 +18902,8 @@
       <c r="E189">
         <v>1</v>
       </c>
-      <c r="F189">
-        <v>1</v>
-      </c>
-      <c r="G189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -20077,14 +18919,8 @@
       <c r="E190">
         <v>1</v>
       </c>
-      <c r="F190">
-        <v>1</v>
-      </c>
-      <c r="G190">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>190</v>
       </c>
@@ -20100,14 +18936,8 @@
       <c r="E191">
         <v>0</v>
       </c>
-      <c r="F191">
-        <v>0</v>
-      </c>
-      <c r="G191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -20123,14 +18953,8 @@
       <c r="E192">
         <v>0</v>
       </c>
-      <c r="F192">
-        <v>0</v>
-      </c>
-      <c r="G192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>192</v>
       </c>
@@ -20146,14 +18970,8 @@
       <c r="E193">
         <v>0</v>
       </c>
-      <c r="F193">
-        <v>0</v>
-      </c>
-      <c r="G193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -20169,14 +18987,8 @@
       <c r="E194">
         <v>1</v>
       </c>
-      <c r="F194">
-        <v>1</v>
-      </c>
-      <c r="G194">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>194</v>
       </c>
@@ -20192,14 +19004,8 @@
       <c r="E195">
         <v>1</v>
       </c>
-      <c r="F195">
-        <v>1</v>
-      </c>
-      <c r="G195">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -20215,14 +19021,8 @@
       <c r="E196">
         <v>0</v>
       </c>
-      <c r="F196">
-        <v>0</v>
-      </c>
-      <c r="G196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>196</v>
       </c>
@@ -20238,14 +19038,8 @@
       <c r="E197">
         <v>0</v>
       </c>
-      <c r="F197">
-        <v>0</v>
-      </c>
-      <c r="G197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>197</v>
       </c>
@@ -20261,14 +19055,8 @@
       <c r="E198">
         <v>1</v>
       </c>
-      <c r="F198">
-        <v>1</v>
-      </c>
-      <c r="G198">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>198</v>
       </c>
@@ -20284,14 +19072,8 @@
       <c r="E199">
         <v>1</v>
       </c>
-      <c r="F199">
-        <v>1</v>
-      </c>
-      <c r="G199">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>199</v>
       </c>
@@ -20307,14 +19089,8 @@
       <c r="E200">
         <v>0</v>
       </c>
-      <c r="F200">
-        <v>0</v>
-      </c>
-      <c r="G200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <v>200</v>
       </c>
@@ -20330,14 +19106,8 @@
       <c r="E201">
         <v>1</v>
       </c>
-      <c r="F201">
-        <v>1</v>
-      </c>
-      <c r="G201">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>201</v>
       </c>
@@ -20353,14 +19123,8 @@
       <c r="E202">
         <v>1</v>
       </c>
-      <c r="F202">
-        <v>1</v>
-      </c>
-      <c r="G202">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>202</v>
       </c>
@@ -20376,14 +19140,8 @@
       <c r="E203">
         <v>1</v>
       </c>
-      <c r="F203">
-        <v>1</v>
-      </c>
-      <c r="G203">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>203</v>
       </c>
@@ -20399,14 +19157,8 @@
       <c r="E204">
         <v>1</v>
       </c>
-      <c r="F204">
-        <v>1</v>
-      </c>
-      <c r="G204">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>204</v>
       </c>
@@ -20422,14 +19174,8 @@
       <c r="E205">
         <v>1</v>
       </c>
-      <c r="F205">
-        <v>1</v>
-      </c>
-      <c r="G205">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>205</v>
       </c>
@@ -20442,17 +19188,11 @@
       <c r="D206" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E206" s="3">
-        <v>0</v>
-      </c>
-      <c r="F206">
-        <v>1</v>
-      </c>
-      <c r="G206">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>206</v>
       </c>
@@ -20468,14 +19208,8 @@
       <c r="E207">
         <v>0</v>
       </c>
-      <c r="F207">
-        <v>0</v>
-      </c>
-      <c r="G207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>207</v>
       </c>
@@ -20491,14 +19225,8 @@
       <c r="E208">
         <v>1</v>
       </c>
-      <c r="F208">
-        <v>1</v>
-      </c>
-      <c r="G208">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>208</v>
       </c>
@@ -20514,14 +19242,8 @@
       <c r="E209">
         <v>1</v>
       </c>
-      <c r="F209">
-        <v>1</v>
-      </c>
-      <c r="G209">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>209</v>
       </c>
@@ -20537,14 +19259,8 @@
       <c r="E210">
         <v>0</v>
       </c>
-      <c r="F210">
-        <v>0</v>
-      </c>
-      <c r="G210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>210</v>
       </c>
@@ -20560,14 +19276,8 @@
       <c r="E211">
         <v>1</v>
       </c>
-      <c r="F211">
-        <v>1</v>
-      </c>
-      <c r="G211">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>211</v>
       </c>
@@ -20583,14 +19293,8 @@
       <c r="E212">
         <v>1</v>
       </c>
-      <c r="F212">
-        <v>1</v>
-      </c>
-      <c r="G212">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>212</v>
       </c>
@@ -20606,14 +19310,8 @@
       <c r="E213">
         <v>1</v>
       </c>
-      <c r="F213">
-        <v>1</v>
-      </c>
-      <c r="G213">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>213</v>
       </c>
@@ -20629,14 +19327,8 @@
       <c r="E214">
         <v>1</v>
       </c>
-      <c r="F214">
-        <v>1</v>
-      </c>
-      <c r="G214">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>214</v>
       </c>
@@ -20652,14 +19344,8 @@
       <c r="E215">
         <v>1</v>
       </c>
-      <c r="F215">
-        <v>1</v>
-      </c>
-      <c r="G215">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <v>215</v>
       </c>
@@ -20672,17 +19358,11 @@
       <c r="D216" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="E216" s="3">
-        <v>0</v>
-      </c>
-      <c r="F216">
-        <v>1</v>
-      </c>
-      <c r="G216">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <v>216</v>
       </c>
@@ -20698,14 +19378,8 @@
       <c r="E217">
         <v>1</v>
       </c>
-      <c r="F217">
-        <v>1</v>
-      </c>
-      <c r="G217">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>217</v>
       </c>
@@ -20721,14 +19395,8 @@
       <c r="E218">
         <v>0</v>
       </c>
-      <c r="F218">
-        <v>0</v>
-      </c>
-      <c r="G218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>218</v>
       </c>
@@ -20744,14 +19412,8 @@
       <c r="E219">
         <v>1</v>
       </c>
-      <c r="F219">
-        <v>1</v>
-      </c>
-      <c r="G219">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>219</v>
       </c>
@@ -20767,14 +19429,8 @@
       <c r="E220">
         <v>1</v>
       </c>
-      <c r="F220">
-        <v>1</v>
-      </c>
-      <c r="G220">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>220</v>
       </c>
@@ -20790,14 +19446,8 @@
       <c r="E221">
         <v>1</v>
       </c>
-      <c r="F221">
-        <v>1</v>
-      </c>
-      <c r="G221">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <v>221</v>
       </c>
@@ -20813,14 +19463,8 @@
       <c r="E222">
         <v>1</v>
       </c>
-      <c r="F222">
-        <v>1</v>
-      </c>
-      <c r="G222">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <v>222</v>
       </c>
@@ -20836,14 +19480,8 @@
       <c r="E223">
         <v>1</v>
       </c>
-      <c r="F223">
-        <v>1</v>
-      </c>
-      <c r="G223">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>223</v>
       </c>
@@ -20859,14 +19497,8 @@
       <c r="E224">
         <v>1</v>
       </c>
-      <c r="F224">
-        <v>1</v>
-      </c>
-      <c r="G224">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>224</v>
       </c>
@@ -20882,14 +19514,8 @@
       <c r="E225">
         <v>0</v>
       </c>
-      <c r="F225">
-        <v>0</v>
-      </c>
-      <c r="G225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>225</v>
       </c>
@@ -20905,14 +19531,8 @@
       <c r="E226">
         <v>1</v>
       </c>
-      <c r="F226">
-        <v>1</v>
-      </c>
-      <c r="G226">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <v>226</v>
       </c>
@@ -20928,14 +19548,8 @@
       <c r="E227">
         <v>0</v>
       </c>
-      <c r="F227">
-        <v>0</v>
-      </c>
-      <c r="G227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>227</v>
       </c>
@@ -20951,14 +19565,8 @@
       <c r="E228">
         <v>1</v>
       </c>
-      <c r="F228">
-        <v>1</v>
-      </c>
-      <c r="G228">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>228</v>
       </c>
@@ -20974,14 +19582,8 @@
       <c r="E229">
         <v>1</v>
       </c>
-      <c r="F229">
-        <v>1</v>
-      </c>
-      <c r="G229">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <v>229</v>
       </c>
@@ -20997,14 +19599,8 @@
       <c r="E230">
         <v>1</v>
       </c>
-      <c r="F230">
-        <v>1</v>
-      </c>
-      <c r="G230">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <v>230</v>
       </c>
@@ -21020,14 +19616,8 @@
       <c r="E231">
         <v>1</v>
       </c>
-      <c r="F231">
-        <v>1</v>
-      </c>
-      <c r="G231">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
         <v>231</v>
       </c>
@@ -21043,14 +19633,8 @@
       <c r="E232">
         <v>1</v>
       </c>
-      <c r="F232">
-        <v>1</v>
-      </c>
-      <c r="G232">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>232</v>
       </c>
@@ -21066,14 +19650,8 @@
       <c r="E233">
         <v>1</v>
       </c>
-      <c r="F233">
-        <v>1</v>
-      </c>
-      <c r="G233">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
         <v>233</v>
       </c>
@@ -21089,14 +19667,8 @@
       <c r="E234">
         <v>1</v>
       </c>
-      <c r="F234">
-        <v>1</v>
-      </c>
-      <c r="G234">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
         <v>234</v>
       </c>
@@ -21112,14 +19684,8 @@
       <c r="E235">
         <v>0</v>
       </c>
-      <c r="F235">
-        <v>0</v>
-      </c>
-      <c r="G235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
         <v>235</v>
       </c>
@@ -21135,14 +19701,8 @@
       <c r="E236">
         <v>1</v>
       </c>
-      <c r="F236">
-        <v>1</v>
-      </c>
-      <c r="G236">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
         <v>236</v>
       </c>
@@ -21158,14 +19718,8 @@
       <c r="E237">
         <v>1</v>
       </c>
-      <c r="F237">
-        <v>1</v>
-      </c>
-      <c r="G237">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <v>237</v>
       </c>
@@ -21181,14 +19735,8 @@
       <c r="E238">
         <v>0</v>
       </c>
-      <c r="F238">
-        <v>0</v>
-      </c>
-      <c r="G238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
         <v>238</v>
       </c>
@@ -21204,14 +19752,8 @@
       <c r="E239">
         <v>0</v>
       </c>
-      <c r="F239">
-        <v>0</v>
-      </c>
-      <c r="G239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <v>239</v>
       </c>
@@ -21227,14 +19769,8 @@
       <c r="E240">
         <v>1</v>
       </c>
-      <c r="F240">
-        <v>1</v>
-      </c>
-      <c r="G240">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>240</v>
       </c>
@@ -21250,14 +19786,8 @@
       <c r="E241">
         <v>0</v>
       </c>
-      <c r="F241">
-        <v>0</v>
-      </c>
-      <c r="G241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <v>241</v>
       </c>
@@ -21273,14 +19803,8 @@
       <c r="E242">
         <v>1</v>
       </c>
-      <c r="F242">
-        <v>1</v>
-      </c>
-      <c r="G242">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <v>242</v>
       </c>
@@ -21296,14 +19820,8 @@
       <c r="E243">
         <v>0</v>
       </c>
-      <c r="F243">
-        <v>0</v>
-      </c>
-      <c r="G243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <v>243</v>
       </c>
@@ -21319,14 +19837,8 @@
       <c r="E244">
         <v>0</v>
       </c>
-      <c r="F244">
-        <v>0</v>
-      </c>
-      <c r="G244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <v>244</v>
       </c>
@@ -21342,14 +19854,8 @@
       <c r="E245">
         <v>1</v>
       </c>
-      <c r="F245">
-        <v>1</v>
-      </c>
-      <c r="G245">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <v>245</v>
       </c>
@@ -21365,14 +19871,8 @@
       <c r="E246">
         <v>1</v>
       </c>
-      <c r="F246">
-        <v>1</v>
-      </c>
-      <c r="G246">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <v>246</v>
       </c>
@@ -21388,14 +19888,8 @@
       <c r="E247">
         <v>1</v>
       </c>
-      <c r="F247">
-        <v>1</v>
-      </c>
-      <c r="G247">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <v>247</v>
       </c>
@@ -21411,14 +19905,8 @@
       <c r="E248">
         <v>1</v>
       </c>
-      <c r="F248">
-        <v>1</v>
-      </c>
-      <c r="G248">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
         <v>248</v>
       </c>
@@ -21434,14 +19922,8 @@
       <c r="E249">
         <v>1</v>
       </c>
-      <c r="F249">
-        <v>1</v>
-      </c>
-      <c r="G249">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
         <v>249</v>
       </c>
@@ -21457,14 +19939,8 @@
       <c r="E250">
         <v>1</v>
       </c>
-      <c r="F250">
-        <v>1</v>
-      </c>
-      <c r="G250">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
         <v>250</v>
       </c>
@@ -21480,14 +19956,8 @@
       <c r="E251">
         <v>0</v>
       </c>
-      <c r="F251">
-        <v>0</v>
-      </c>
-      <c r="G251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
         <v>251</v>
       </c>
@@ -21503,14 +19973,8 @@
       <c r="E252">
         <v>1</v>
       </c>
-      <c r="F252">
-        <v>1</v>
-      </c>
-      <c r="G252">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
         <v>252</v>
       </c>
@@ -21526,14 +19990,8 @@
       <c r="E253">
         <v>1</v>
       </c>
-      <c r="F253">
-        <v>1</v>
-      </c>
-      <c r="G253">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
         <v>253</v>
       </c>
@@ -21549,14 +20007,8 @@
       <c r="E254">
         <v>1</v>
       </c>
-      <c r="F254">
-        <v>1</v>
-      </c>
-      <c r="G254">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
         <v>254</v>
       </c>
@@ -21572,14 +20024,8 @@
       <c r="E255">
         <v>1</v>
       </c>
-      <c r="F255">
-        <v>1</v>
-      </c>
-      <c r="G255">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
         <v>255</v>
       </c>
@@ -21595,14 +20041,8 @@
       <c r="E256">
         <v>0</v>
       </c>
-      <c r="F256">
-        <v>0</v>
-      </c>
-      <c r="G256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
         <v>256</v>
       </c>
@@ -21618,14 +20058,8 @@
       <c r="E257">
         <v>1</v>
       </c>
-      <c r="F257">
-        <v>1</v>
-      </c>
-      <c r="G257">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
         <v>257</v>
       </c>
@@ -21641,14 +20075,8 @@
       <c r="E258">
         <v>0</v>
       </c>
-      <c r="F258">
-        <v>0</v>
-      </c>
-      <c r="G258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
         <v>258</v>
       </c>
@@ -21664,14 +20092,8 @@
       <c r="E259">
         <v>0</v>
       </c>
-      <c r="F259">
-        <v>0</v>
-      </c>
-      <c r="G259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
         <v>259</v>
       </c>
@@ -21687,14 +20109,8 @@
       <c r="E260">
         <v>1</v>
       </c>
-      <c r="F260">
-        <v>1</v>
-      </c>
-      <c r="G260">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
         <v>260</v>
       </c>
@@ -21710,14 +20126,8 @@
       <c r="E261">
         <v>1</v>
       </c>
-      <c r="F261">
-        <v>1</v>
-      </c>
-      <c r="G261">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
         <v>261</v>
       </c>
@@ -21733,14 +20143,8 @@
       <c r="E262">
         <v>0</v>
       </c>
-      <c r="F262">
-        <v>0</v>
-      </c>
-      <c r="G262">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
         <v>262</v>
       </c>
@@ -21756,14 +20160,8 @@
       <c r="E263">
         <v>1</v>
       </c>
-      <c r="F263">
-        <v>1</v>
-      </c>
-      <c r="G263">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
         <v>263</v>
       </c>
@@ -21779,14 +20177,8 @@
       <c r="E264">
         <v>0</v>
       </c>
-      <c r="F264">
-        <v>0</v>
-      </c>
-      <c r="G264">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
         <v>264</v>
       </c>
@@ -21802,14 +20194,8 @@
       <c r="E265">
         <v>1</v>
       </c>
-      <c r="F265">
-        <v>1</v>
-      </c>
-      <c r="G265">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
         <v>265</v>
       </c>
@@ -21825,14 +20211,8 @@
       <c r="E266">
         <v>1</v>
       </c>
-      <c r="F266">
-        <v>1</v>
-      </c>
-      <c r="G266">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
         <v>266</v>
       </c>
@@ -21848,14 +20228,8 @@
       <c r="E267">
         <v>1</v>
       </c>
-      <c r="F267">
-        <v>1</v>
-      </c>
-      <c r="G267">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
         <v>267</v>
       </c>
@@ -21871,14 +20245,8 @@
       <c r="E268">
         <v>0</v>
       </c>
-      <c r="F268">
-        <v>0</v>
-      </c>
-      <c r="G268">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
         <v>268</v>
       </c>
@@ -21894,14 +20262,8 @@
       <c r="E269">
         <v>1</v>
       </c>
-      <c r="F269">
-        <v>1</v>
-      </c>
-      <c r="G269">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
         <v>269</v>
       </c>
@@ -21917,14 +20279,8 @@
       <c r="E270">
         <v>1</v>
       </c>
-      <c r="F270">
-        <v>1</v>
-      </c>
-      <c r="G270">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
         <v>270</v>
       </c>
@@ -21940,14 +20296,8 @@
       <c r="E271">
         <v>1</v>
       </c>
-      <c r="F271">
-        <v>1</v>
-      </c>
-      <c r="G271">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
         <v>271</v>
       </c>
@@ -21963,14 +20313,8 @@
       <c r="E272">
         <v>0</v>
       </c>
-      <c r="F272">
-        <v>0</v>
-      </c>
-      <c r="G272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
         <v>272</v>
       </c>
@@ -21986,14 +20330,8 @@
       <c r="E273">
         <v>1</v>
       </c>
-      <c r="F273">
-        <v>1</v>
-      </c>
-      <c r="G273">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
         <v>273</v>
       </c>
@@ -22009,14 +20347,8 @@
       <c r="E274">
         <v>1</v>
       </c>
-      <c r="F274">
-        <v>1</v>
-      </c>
-      <c r="G274">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
         <v>274</v>
       </c>
@@ -22032,14 +20364,8 @@
       <c r="E275">
         <v>1</v>
       </c>
-      <c r="F275">
-        <v>1</v>
-      </c>
-      <c r="G275">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
         <v>275</v>
       </c>
@@ -22055,14 +20381,8 @@
       <c r="E276">
         <v>1</v>
       </c>
-      <c r="F276">
-        <v>1</v>
-      </c>
-      <c r="G276">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
         <v>276</v>
       </c>
@@ -22078,14 +20398,8 @@
       <c r="E277">
         <v>1</v>
       </c>
-      <c r="F277">
-        <v>1</v>
-      </c>
-      <c r="G277">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
         <v>277</v>
       </c>
@@ -22101,14 +20415,8 @@
       <c r="E278">
         <v>1</v>
       </c>
-      <c r="F278">
-        <v>1</v>
-      </c>
-      <c r="G278">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
         <v>278</v>
       </c>
@@ -22124,14 +20432,8 @@
       <c r="E279">
         <v>1</v>
       </c>
-      <c r="F279">
-        <v>1</v>
-      </c>
-      <c r="G279">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
         <v>279</v>
       </c>
@@ -22147,14 +20449,8 @@
       <c r="E280">
         <v>1</v>
       </c>
-      <c r="F280">
-        <v>1</v>
-      </c>
-      <c r="G280">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
         <v>280</v>
       </c>
@@ -22170,14 +20466,8 @@
       <c r="E281">
         <v>0</v>
       </c>
-      <c r="F281">
-        <v>0</v>
-      </c>
-      <c r="G281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
         <v>281</v>
       </c>
@@ -22193,14 +20483,8 @@
       <c r="E282">
         <v>1</v>
       </c>
-      <c r="F282">
-        <v>1</v>
-      </c>
-      <c r="G282">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
         <v>282</v>
       </c>
@@ -22216,14 +20500,8 @@
       <c r="E283">
         <v>1</v>
       </c>
-      <c r="F283">
-        <v>1</v>
-      </c>
-      <c r="G283">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
         <v>283</v>
       </c>
@@ -22239,14 +20517,8 @@
       <c r="E284">
         <v>1</v>
       </c>
-      <c r="F284">
-        <v>1</v>
-      </c>
-      <c r="G284">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
         <v>284</v>
       </c>
@@ -22262,14 +20534,8 @@
       <c r="E285">
         <v>1</v>
       </c>
-      <c r="F285">
-        <v>1</v>
-      </c>
-      <c r="G285">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
         <v>285</v>
       </c>
@@ -22285,14 +20551,8 @@
       <c r="E286">
         <v>1</v>
       </c>
-      <c r="F286">
-        <v>1</v>
-      </c>
-      <c r="G286">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
         <v>286</v>
       </c>
@@ -22308,14 +20568,8 @@
       <c r="E287">
         <v>1</v>
       </c>
-      <c r="F287">
-        <v>1</v>
-      </c>
-      <c r="G287">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
         <v>287</v>
       </c>
@@ -22331,14 +20585,8 @@
       <c r="E288">
         <v>1</v>
       </c>
-      <c r="F288">
-        <v>1</v>
-      </c>
-      <c r="G288">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
         <v>288</v>
       </c>
@@ -22354,14 +20602,8 @@
       <c r="E289">
         <v>0</v>
       </c>
-      <c r="F289">
-        <v>0</v>
-      </c>
-      <c r="G289">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
         <v>289</v>
       </c>
@@ -22377,14 +20619,8 @@
       <c r="E290">
         <v>1</v>
       </c>
-      <c r="F290">
-        <v>1</v>
-      </c>
-      <c r="G290">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
         <v>290</v>
       </c>
@@ -22400,14 +20636,8 @@
       <c r="E291">
         <v>0</v>
       </c>
-      <c r="F291">
-        <v>0</v>
-      </c>
-      <c r="G291">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
         <v>291</v>
       </c>
@@ -22423,14 +20653,8 @@
       <c r="E292">
         <v>1</v>
       </c>
-      <c r="F292">
-        <v>1</v>
-      </c>
-      <c r="G292">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
         <v>292</v>
       </c>
@@ -22446,14 +20670,8 @@
       <c r="E293">
         <v>1</v>
       </c>
-      <c r="F293">
-        <v>1</v>
-      </c>
-      <c r="G293">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
         <v>293</v>
       </c>
@@ -22469,14 +20687,8 @@
       <c r="E294">
         <v>1</v>
       </c>
-      <c r="F294">
-        <v>1</v>
-      </c>
-      <c r="G294">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
         <v>294</v>
       </c>
@@ -22492,14 +20704,8 @@
       <c r="E295">
         <v>0</v>
       </c>
-      <c r="F295">
-        <v>0</v>
-      </c>
-      <c r="G295">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
         <v>295</v>
       </c>
@@ -22515,14 +20721,8 @@
       <c r="E296">
         <v>1</v>
       </c>
-      <c r="F296">
-        <v>1</v>
-      </c>
-      <c r="G296">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
         <v>296</v>
       </c>
@@ -22538,14 +20738,8 @@
       <c r="E297">
         <v>1</v>
       </c>
-      <c r="F297">
-        <v>1</v>
-      </c>
-      <c r="G297">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
         <v>297</v>
       </c>
@@ -22561,14 +20755,8 @@
       <c r="E298">
         <v>1</v>
       </c>
-      <c r="F298">
-        <v>1</v>
-      </c>
-      <c r="G298">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
         <v>298</v>
       </c>
@@ -22584,14 +20772,8 @@
       <c r="E299">
         <v>0</v>
       </c>
-      <c r="F299">
-        <v>0</v>
-      </c>
-      <c r="G299">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
         <v>299</v>
       </c>
@@ -22607,14 +20789,8 @@
       <c r="E300">
         <v>0</v>
       </c>
-      <c r="F300">
-        <v>0</v>
-      </c>
-      <c r="G300">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
         <v>300</v>
       </c>
@@ -22630,14 +20806,8 @@
       <c r="E301">
         <v>1</v>
       </c>
-      <c r="F301">
-        <v>1</v>
-      </c>
-      <c r="G301">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
         <v>301</v>
       </c>
@@ -22653,14 +20823,8 @@
       <c r="E302">
         <v>0</v>
       </c>
-      <c r="F302">
-        <v>0</v>
-      </c>
-      <c r="G302">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
         <v>302</v>
       </c>
@@ -22676,14 +20840,8 @@
       <c r="E303">
         <v>1</v>
       </c>
-      <c r="F303">
-        <v>1</v>
-      </c>
-      <c r="G303">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
         <v>303</v>
       </c>
@@ -22699,14 +20857,8 @@
       <c r="E304">
         <v>0</v>
       </c>
-      <c r="F304">
-        <v>0</v>
-      </c>
-      <c r="G304">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
         <v>304</v>
       </c>
@@ -22722,14 +20874,8 @@
       <c r="E305">
         <v>1</v>
       </c>
-      <c r="F305">
-        <v>1</v>
-      </c>
-      <c r="G305">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
         <v>305</v>
       </c>
@@ -22745,14 +20891,8 @@
       <c r="E306">
         <v>1</v>
       </c>
-      <c r="F306">
-        <v>1</v>
-      </c>
-      <c r="G306">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
         <v>306</v>
       </c>
@@ -22768,14 +20908,8 @@
       <c r="E307">
         <v>1</v>
       </c>
-      <c r="F307">
-        <v>1</v>
-      </c>
-      <c r="G307">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
         <v>307</v>
       </c>
@@ -22791,14 +20925,8 @@
       <c r="E308">
         <v>1</v>
       </c>
-      <c r="F308">
-        <v>1</v>
-      </c>
-      <c r="G308">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
         <v>308</v>
       </c>
@@ -22814,14 +20942,8 @@
       <c r="E309">
         <v>1</v>
       </c>
-      <c r="F309">
-        <v>1</v>
-      </c>
-      <c r="G309">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
         <v>309</v>
       </c>
@@ -22837,14 +20959,8 @@
       <c r="E310">
         <v>1</v>
       </c>
-      <c r="F310">
-        <v>1</v>
-      </c>
-      <c r="G310">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
         <v>310</v>
       </c>
@@ -22860,14 +20976,8 @@
       <c r="E311">
         <v>1</v>
       </c>
-      <c r="F311">
-        <v>1</v>
-      </c>
-      <c r="G311">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
         <v>311</v>
       </c>
@@ -22883,14 +20993,8 @@
       <c r="E312">
         <v>1</v>
       </c>
-      <c r="F312">
-        <v>1</v>
-      </c>
-      <c r="G312">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
         <v>312</v>
       </c>
@@ -22906,14 +21010,8 @@
       <c r="E313">
         <v>0</v>
       </c>
-      <c r="F313">
-        <v>0</v>
-      </c>
-      <c r="G313">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
         <v>313</v>
       </c>
@@ -22929,14 +21027,8 @@
       <c r="E314">
         <v>0</v>
       </c>
-      <c r="F314">
-        <v>0</v>
-      </c>
-      <c r="G314">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
         <v>314</v>
       </c>
@@ -22952,14 +21044,8 @@
       <c r="E315">
         <v>1</v>
       </c>
-      <c r="F315">
-        <v>1</v>
-      </c>
-      <c r="G315">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
         <v>315</v>
       </c>
@@ -22975,14 +21061,8 @@
       <c r="E316">
         <v>1</v>
       </c>
-      <c r="F316">
-        <v>1</v>
-      </c>
-      <c r="G316">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
         <v>316</v>
       </c>
@@ -22998,14 +21078,8 @@
       <c r="E317">
         <v>1</v>
       </c>
-      <c r="F317">
-        <v>1</v>
-      </c>
-      <c r="G317">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
         <v>317</v>
       </c>
@@ -23021,14 +21095,8 @@
       <c r="E318">
         <v>1</v>
       </c>
-      <c r="F318">
-        <v>1</v>
-      </c>
-      <c r="G318">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
         <v>318</v>
       </c>
@@ -23044,14 +21112,8 @@
       <c r="E319">
         <v>1</v>
       </c>
-      <c r="F319">
-        <v>1</v>
-      </c>
-      <c r="G319">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
         <v>319</v>
       </c>
@@ -23067,14 +21129,8 @@
       <c r="E320">
         <v>1</v>
       </c>
-      <c r="F320">
-        <v>1</v>
-      </c>
-      <c r="G320">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
         <v>320</v>
       </c>
@@ -23090,14 +21146,8 @@
       <c r="E321">
         <v>1</v>
       </c>
-      <c r="F321">
-        <v>1</v>
-      </c>
-      <c r="G321">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
         <v>321</v>
       </c>
@@ -23113,14 +21163,8 @@
       <c r="E322">
         <v>1</v>
       </c>
-      <c r="F322">
-        <v>1</v>
-      </c>
-      <c r="G322">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
         <v>322</v>
       </c>
@@ -23136,14 +21180,8 @@
       <c r="E323">
         <v>1</v>
       </c>
-      <c r="F323">
-        <v>1</v>
-      </c>
-      <c r="G323">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
         <v>323</v>
       </c>
@@ -23159,14 +21197,8 @@
       <c r="E324">
         <v>0</v>
       </c>
-      <c r="F324">
-        <v>0</v>
-      </c>
-      <c r="G324">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
         <v>324</v>
       </c>
@@ -23182,14 +21214,8 @@
       <c r="E325">
         <v>1</v>
       </c>
-      <c r="F325">
-        <v>1</v>
-      </c>
-      <c r="G325">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
         <v>325</v>
       </c>
@@ -23205,14 +21231,8 @@
       <c r="E326">
         <v>0</v>
       </c>
-      <c r="F326">
-        <v>0</v>
-      </c>
-      <c r="G326">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
         <v>326</v>
       </c>
@@ -23228,14 +21248,8 @@
       <c r="E327">
         <v>0</v>
       </c>
-      <c r="F327">
-        <v>0</v>
-      </c>
-      <c r="G327">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
         <v>327</v>
       </c>
@@ -23248,17 +21262,11 @@
       <c r="D328" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="E328" s="3">
-        <v>0</v>
-      </c>
-      <c r="F328">
-        <v>1</v>
-      </c>
-      <c r="G328">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
         <v>328</v>
       </c>
@@ -23274,14 +21282,8 @@
       <c r="E329">
         <v>1</v>
       </c>
-      <c r="F329">
-        <v>1</v>
-      </c>
-      <c r="G329">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
         <v>329</v>
       </c>
@@ -23297,14 +21299,8 @@
       <c r="E330">
         <v>1</v>
       </c>
-      <c r="F330">
-        <v>1</v>
-      </c>
-      <c r="G330">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
         <v>330</v>
       </c>
@@ -23320,14 +21316,8 @@
       <c r="E331">
         <v>1</v>
       </c>
-      <c r="F331">
-        <v>1</v>
-      </c>
-      <c r="G331">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
         <v>331</v>
       </c>
@@ -23343,14 +21333,8 @@
       <c r="E332">
         <v>1</v>
       </c>
-      <c r="F332">
-        <v>1</v>
-      </c>
-      <c r="G332">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
         <v>332</v>
       </c>
@@ -23366,14 +21350,8 @@
       <c r="E333">
         <v>1</v>
       </c>
-      <c r="F333">
-        <v>1</v>
-      </c>
-      <c r="G333">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
         <v>333</v>
       </c>
@@ -23389,14 +21367,8 @@
       <c r="E334">
         <v>0</v>
       </c>
-      <c r="F334">
-        <v>0</v>
-      </c>
-      <c r="G334">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
         <v>334</v>
       </c>
@@ -23412,14 +21384,8 @@
       <c r="E335">
         <v>1</v>
       </c>
-      <c r="F335">
-        <v>1</v>
-      </c>
-      <c r="G335">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
         <v>335</v>
       </c>
@@ -23435,14 +21401,8 @@
       <c r="E336">
         <v>1</v>
       </c>
-      <c r="F336">
-        <v>1</v>
-      </c>
-      <c r="G336">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
         <v>336</v>
       </c>
@@ -23458,14 +21418,8 @@
       <c r="E337">
         <v>1</v>
       </c>
-      <c r="F337">
-        <v>1</v>
-      </c>
-      <c r="G337">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
         <v>337</v>
       </c>
@@ -23481,14 +21435,8 @@
       <c r="E338">
         <v>1</v>
       </c>
-      <c r="F338">
-        <v>1</v>
-      </c>
-      <c r="G338">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
         <v>338</v>
       </c>
@@ -23504,14 +21452,8 @@
       <c r="E339">
         <v>0</v>
       </c>
-      <c r="F339">
-        <v>0</v>
-      </c>
-      <c r="G339">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
         <v>339</v>
       </c>
@@ -23527,14 +21469,8 @@
       <c r="E340">
         <v>0</v>
       </c>
-      <c r="F340">
-        <v>0</v>
-      </c>
-      <c r="G340">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
         <v>340</v>
       </c>
@@ -23550,14 +21486,8 @@
       <c r="E341">
         <v>0</v>
       </c>
-      <c r="F341">
-        <v>0</v>
-      </c>
-      <c r="G341">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
         <v>341</v>
       </c>
@@ -23573,14 +21503,8 @@
       <c r="E342">
         <v>0</v>
       </c>
-      <c r="F342">
-        <v>0</v>
-      </c>
-      <c r="G342">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
         <v>342</v>
       </c>
@@ -23596,14 +21520,8 @@
       <c r="E343">
         <v>1</v>
       </c>
-      <c r="F343">
-        <v>1</v>
-      </c>
-      <c r="G343">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
         <v>343</v>
       </c>
@@ -23619,14 +21537,8 @@
       <c r="E344">
         <v>0</v>
       </c>
-      <c r="F344">
-        <v>0</v>
-      </c>
-      <c r="G344">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
         <v>344</v>
       </c>
@@ -23642,14 +21554,8 @@
       <c r="E345">
         <v>1</v>
       </c>
-      <c r="F345">
-        <v>1</v>
-      </c>
-      <c r="G345">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
         <v>345</v>
       </c>
@@ -23665,14 +21571,8 @@
       <c r="E346">
         <v>1</v>
       </c>
-      <c r="F346">
-        <v>1</v>
-      </c>
-      <c r="G346">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
         <v>346</v>
       </c>
@@ -23688,14 +21588,8 @@
       <c r="E347">
         <v>0</v>
       </c>
-      <c r="F347">
-        <v>0</v>
-      </c>
-      <c r="G347">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
         <v>347</v>
       </c>
@@ -23708,17 +21602,11 @@
       <c r="D348" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="E348" s="3">
-        <v>0</v>
-      </c>
-      <c r="F348">
-        <v>1</v>
-      </c>
-      <c r="G348">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
         <v>348</v>
       </c>
@@ -23734,14 +21622,8 @@
       <c r="E349">
         <v>1</v>
       </c>
-      <c r="F349">
-        <v>1</v>
-      </c>
-      <c r="G349">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
         <v>349</v>
       </c>
@@ -23757,14 +21639,8 @@
       <c r="E350">
         <v>1</v>
       </c>
-      <c r="F350">
-        <v>1</v>
-      </c>
-      <c r="G350">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
         <v>350</v>
       </c>
@@ -23780,14 +21656,8 @@
       <c r="E351">
         <v>0</v>
       </c>
-      <c r="F351">
-        <v>0</v>
-      </c>
-      <c r="G351">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
         <v>351</v>
       </c>
@@ -23803,14 +21673,8 @@
       <c r="E352">
         <v>0</v>
       </c>
-      <c r="F352">
-        <v>0</v>
-      </c>
-      <c r="G352">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
         <v>352</v>
       </c>
@@ -23826,14 +21690,8 @@
       <c r="E353">
         <v>1</v>
       </c>
-      <c r="F353">
-        <v>1</v>
-      </c>
-      <c r="G353">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
         <v>353</v>
       </c>
@@ -23849,14 +21707,8 @@
       <c r="E354">
         <v>0</v>
       </c>
-      <c r="F354">
-        <v>0</v>
-      </c>
-      <c r="G354">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
         <v>354</v>
       </c>
@@ -23872,14 +21724,8 @@
       <c r="E355">
         <v>0</v>
       </c>
-      <c r="F355">
-        <v>0</v>
-      </c>
-      <c r="G355">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
         <v>355</v>
       </c>
@@ -23895,14 +21741,8 @@
       <c r="E356">
         <v>1</v>
       </c>
-      <c r="F356">
-        <v>1</v>
-      </c>
-      <c r="G356">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
         <v>356</v>
       </c>
@@ -23918,14 +21758,8 @@
       <c r="E357">
         <v>1</v>
       </c>
-      <c r="F357">
-        <v>1</v>
-      </c>
-      <c r="G357">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
         <v>357</v>
       </c>
@@ -23941,14 +21775,8 @@
       <c r="E358">
         <v>1</v>
       </c>
-      <c r="F358">
-        <v>1</v>
-      </c>
-      <c r="G358">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
         <v>358</v>
       </c>
@@ -23964,14 +21792,8 @@
       <c r="E359">
         <v>0</v>
       </c>
-      <c r="F359">
-        <v>0</v>
-      </c>
-      <c r="G359">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
         <v>359</v>
       </c>
@@ -23987,14 +21809,8 @@
       <c r="E360">
         <v>1</v>
       </c>
-      <c r="F360">
-        <v>1</v>
-      </c>
-      <c r="G360">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
         <v>360</v>
       </c>
@@ -24010,14 +21826,8 @@
       <c r="E361">
         <v>0</v>
       </c>
-      <c r="F361">
-        <v>0</v>
-      </c>
-      <c r="G361">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
         <v>361</v>
       </c>
@@ -24033,14 +21843,8 @@
       <c r="E362">
         <v>1</v>
       </c>
-      <c r="F362">
-        <v>1</v>
-      </c>
-      <c r="G362">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
         <v>362</v>
       </c>
@@ -24056,14 +21860,8 @@
       <c r="E363">
         <v>1</v>
       </c>
-      <c r="F363">
-        <v>1</v>
-      </c>
-      <c r="G363">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
         <v>363</v>
       </c>
@@ -24079,14 +21877,8 @@
       <c r="E364">
         <v>1</v>
       </c>
-      <c r="F364">
-        <v>1</v>
-      </c>
-      <c r="G364">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
         <v>364</v>
       </c>
@@ -24102,14 +21894,8 @@
       <c r="E365">
         <v>1</v>
       </c>
-      <c r="F365">
-        <v>1</v>
-      </c>
-      <c r="G365">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
         <v>365</v>
       </c>
@@ -24125,14 +21911,8 @@
       <c r="E366">
         <v>1</v>
       </c>
-      <c r="F366">
-        <v>1</v>
-      </c>
-      <c r="G366">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
         <v>366</v>
       </c>
@@ -24148,14 +21928,8 @@
       <c r="E367">
         <v>0</v>
       </c>
-      <c r="F367">
-        <v>0</v>
-      </c>
-      <c r="G367">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
         <v>367</v>
       </c>
@@ -24171,14 +21945,8 @@
       <c r="E368">
         <v>1</v>
       </c>
-      <c r="F368">
-        <v>1</v>
-      </c>
-      <c r="G368">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" s="2">
         <v>368</v>
       </c>
@@ -24194,14 +21962,8 @@
       <c r="E369">
         <v>1</v>
       </c>
-      <c r="F369">
-        <v>1</v>
-      </c>
-      <c r="G369">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
         <v>369</v>
       </c>
@@ -24217,14 +21979,8 @@
       <c r="E370">
         <v>1</v>
       </c>
-      <c r="F370">
-        <v>1</v>
-      </c>
-      <c r="G370">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" s="2">
         <v>370</v>
       </c>
@@ -24240,14 +21996,8 @@
       <c r="E371">
         <v>1</v>
       </c>
-      <c r="F371">
-        <v>1</v>
-      </c>
-      <c r="G371">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" s="2">
         <v>371</v>
       </c>
@@ -24263,14 +22013,8 @@
       <c r="E372">
         <v>0</v>
       </c>
-      <c r="F372">
-        <v>0</v>
-      </c>
-      <c r="G372">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" s="2">
         <v>372</v>
       </c>
@@ -24286,14 +22030,8 @@
       <c r="E373">
         <v>1</v>
       </c>
-      <c r="F373">
-        <v>1</v>
-      </c>
-      <c r="G373">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" s="2">
         <v>373</v>
       </c>
@@ -24309,14 +22047,8 @@
       <c r="E374">
         <v>1</v>
       </c>
-      <c r="F374">
-        <v>1</v>
-      </c>
-      <c r="G374">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" s="2">
         <v>374</v>
       </c>
@@ -24332,14 +22064,8 @@
       <c r="E375">
         <v>1</v>
       </c>
-      <c r="F375">
-        <v>1</v>
-      </c>
-      <c r="G375">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" s="2">
         <v>375</v>
       </c>
@@ -24355,14 +22081,8 @@
       <c r="E376">
         <v>0</v>
       </c>
-      <c r="F376">
-        <v>0</v>
-      </c>
-      <c r="G376">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" s="2">
         <v>376</v>
       </c>
@@ -24378,14 +22098,8 @@
       <c r="E377">
         <v>0</v>
       </c>
-      <c r="F377">
-        <v>0</v>
-      </c>
-      <c r="G377">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
         <v>377</v>
       </c>
@@ -24401,14 +22115,8 @@
       <c r="E378">
         <v>1</v>
       </c>
-      <c r="F378">
-        <v>1</v>
-      </c>
-      <c r="G378">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" s="2">
         <v>378</v>
       </c>
@@ -24424,14 +22132,8 @@
       <c r="E379">
         <v>1</v>
       </c>
-      <c r="F379">
-        <v>1</v>
-      </c>
-      <c r="G379">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" s="2">
         <v>379</v>
       </c>
@@ -24447,14 +22149,8 @@
       <c r="E380">
         <v>1</v>
       </c>
-      <c r="F380">
-        <v>1</v>
-      </c>
-      <c r="G380">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" s="2">
         <v>380</v>
       </c>
@@ -24470,14 +22166,8 @@
       <c r="E381">
         <v>0</v>
       </c>
-      <c r="F381">
-        <v>0</v>
-      </c>
-      <c r="G381">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" s="2">
         <v>381</v>
       </c>
@@ -24493,14 +22183,8 @@
       <c r="E382">
         <v>0</v>
       </c>
-      <c r="F382">
-        <v>0</v>
-      </c>
-      <c r="G382">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" s="2">
         <v>382</v>
       </c>
@@ -24516,14 +22200,8 @@
       <c r="E383">
         <v>1</v>
       </c>
-      <c r="F383">
-        <v>1</v>
-      </c>
-      <c r="G383">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" s="2">
         <v>383</v>
       </c>
@@ -24539,14 +22217,8 @@
       <c r="E384">
         <v>1</v>
       </c>
-      <c r="F384">
-        <v>1</v>
-      </c>
-      <c r="G384">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A385" s="2">
         <v>384</v>
       </c>
@@ -24560,12 +22232,6 @@
         <v>459</v>
       </c>
       <c r="E385">
-        <v>1</v>
-      </c>
-      <c r="F385">
-        <v>1</v>
-      </c>
-      <c r="G385">
         <v>1</v>
       </c>
     </row>
